--- a/nba_twitters.xlsx
+++ b/nba_twitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/footballnerd12/Project Workspaces/R/basketball/the bubble/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF8E19-4F1B-9140-9A51-7273C685FA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524817D0-1DAE-8343-B959-40C3E9016439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15780" xr2:uid="{BE390050-EE57-3D42-9EE9-13B3005161BA}"/>
   </bookViews>
@@ -33,35 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Twitter Handle</t>
-  </si>
-  <si>
-    <t>Main City</t>
-  </si>
-  <si>
-    <t>NBA Team</t>
-  </si>
-  <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>Followers</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Liberty Ballers</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>sbnation</t>
   </si>
   <si>
@@ -72,6 +48,33 @@
   </si>
   <si>
     <t>@Liberty_Ballers</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>followers</t>
+  </si>
+  <si>
+    <t>outlet</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>follows_me</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14780A-A18C-114E-819B-1554C1EA79EE}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,47 +439,53 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
